--- a/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt5a</t>
   </si>
   <si>
     <t>Mcam</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H2">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>65.495738236308</v>
+        <v>88.281043</v>
       </c>
       <c r="N2">
-        <v>65.495738236308</v>
+        <v>264.843129</v>
       </c>
       <c r="O2">
-        <v>0.4443076950878684</v>
+        <v>0.5104595351890647</v>
       </c>
       <c r="P2">
-        <v>0.4443076950878684</v>
+        <v>0.6037079925017727</v>
       </c>
       <c r="Q2">
-        <v>323.502453621736</v>
+        <v>5.728321464155334</v>
       </c>
       <c r="R2">
-        <v>323.502453621736</v>
+        <v>51.55489317739799</v>
       </c>
       <c r="S2">
-        <v>0.4443076950878684</v>
+        <v>0.005710102103561023</v>
       </c>
       <c r="T2">
-        <v>0.4443076950878684</v>
+        <v>0.006783107451194635</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H3">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.90913669589815</v>
+        <v>3.371552333333333</v>
       </c>
       <c r="N3">
-        <v>2.90913669589815</v>
+        <v>10.114657</v>
       </c>
       <c r="O3">
-        <v>0.01973489962639293</v>
+        <v>0.01949502382905625</v>
       </c>
       <c r="P3">
-        <v>0.01973489962639293</v>
+        <v>0.02305628730248842</v>
       </c>
       <c r="Q3">
-        <v>14.36907017749087</v>
+        <v>0.2187710401037778</v>
       </c>
       <c r="R3">
-        <v>14.36907017749087</v>
+        <v>1.968939360934</v>
       </c>
       <c r="S3">
-        <v>0.01973489962639293</v>
+        <v>0.0002180752222289982</v>
       </c>
       <c r="T3">
-        <v>0.01973489962639293</v>
+        <v>0.0002590545034037034</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H4">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.53079079614115</v>
+        <v>0.6617113333333333</v>
       </c>
       <c r="N4">
-        <v>0.53079079614115</v>
+        <v>1.985134</v>
       </c>
       <c r="O4">
-        <v>0.003600760012146754</v>
+        <v>0.003826153930268694</v>
       </c>
       <c r="P4">
-        <v>0.003600760012146754</v>
+        <v>0.00452509856122042</v>
       </c>
       <c r="Q4">
-        <v>2.621729742047659</v>
+        <v>0.04293668385644445</v>
       </c>
       <c r="R4">
-        <v>2.621729742047659</v>
+        <v>0.386430154708</v>
       </c>
       <c r="S4">
-        <v>0.003600760012146754</v>
+        <v>4.280012047905728E-05</v>
       </c>
       <c r="T4">
-        <v>0.003600760012146754</v>
+        <v>5.084284148832803E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.93929013296319</v>
+        <v>0.06488733333333334</v>
       </c>
       <c r="H5">
-        <v>4.93929013296319</v>
+        <v>0.194662</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01118619931635934</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01123574233808859</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.474760654086156</v>
+        <v>0.4912783333333333</v>
       </c>
       <c r="N5">
-        <v>0.474760654086156</v>
+        <v>1.473835</v>
       </c>
       <c r="O5">
-        <v>0.003220664696905315</v>
+        <v>0.00284067452263553</v>
       </c>
       <c r="P5">
-        <v>0.003220664696905315</v>
+        <v>0.003359596197524347</v>
       </c>
       <c r="Q5">
-        <v>2.344980614246901</v>
+        <v>0.03187774097444444</v>
       </c>
       <c r="R5">
-        <v>2.344980614246901</v>
+        <v>0.28689966877</v>
       </c>
       <c r="S5">
-        <v>0.003220664696905315</v>
+        <v>3.177635140310497E-05</v>
       </c>
       <c r="T5">
-        <v>0.003220664696905315</v>
+        <v>3.774755723540574E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.06488733333333334</v>
+      </c>
+      <c r="H6">
+        <v>0.194662</v>
+      </c>
+      <c r="I6">
+        <v>0.01118619931635934</v>
+      </c>
+      <c r="J6">
+        <v>0.01123574233808859</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>80.138668</v>
+      </c>
+      <c r="N6">
+        <v>160.277336</v>
+      </c>
+      <c r="O6">
+        <v>0.4633786125289749</v>
+      </c>
+      <c r="P6">
+        <v>0.365351025436994</v>
+      </c>
+      <c r="Q6">
+        <v>5.199984463405333</v>
+      </c>
+      <c r="R6">
+        <v>31.199906780432</v>
+      </c>
+      <c r="S6">
+        <v>0.005183445518687159</v>
+      </c>
+      <c r="T6">
+        <v>0.004104989984766515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H7">
+        <v>16.977119</v>
+      </c>
+      <c r="I7">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J7">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>88.281043</v>
+      </c>
+      <c r="N7">
+        <v>264.843129</v>
+      </c>
+      <c r="O7">
+        <v>0.5104595351890647</v>
+      </c>
+      <c r="P7">
+        <v>0.6037079925017727</v>
+      </c>
+      <c r="Q7">
+        <v>499.5859241517057</v>
+      </c>
+      <c r="R7">
+        <v>4496.273317365351</v>
+      </c>
+      <c r="S7">
+        <v>0.4979969532538751</v>
+      </c>
+      <c r="T7">
+        <v>0.591577310357019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H8">
+        <v>16.977119</v>
+      </c>
+      <c r="I8">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J8">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>3.371552333333333</v>
+      </c>
+      <c r="N8">
+        <v>10.114657</v>
+      </c>
+      <c r="O8">
+        <v>0.01949502382905625</v>
+      </c>
+      <c r="P8">
+        <v>0.02305628730248842</v>
+      </c>
+      <c r="Q8">
+        <v>19.07974839257589</v>
+      </c>
+      <c r="R8">
+        <v>171.717735533183</v>
+      </c>
+      <c r="S8">
+        <v>0.01901906380666564</v>
+      </c>
+      <c r="T8">
+        <v>0.02259300290642539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H9">
+        <v>16.977119</v>
+      </c>
+      <c r="I9">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J9">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6617113333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.985134</v>
+      </c>
+      <c r="O9">
+        <v>0.003826153930268694</v>
+      </c>
+      <c r="P9">
+        <v>0.00452509856122042</v>
+      </c>
+      <c r="Q9">
+        <v>3.744650683216223</v>
+      </c>
+      <c r="R9">
+        <v>33.701856148946</v>
+      </c>
+      <c r="S9">
+        <v>0.003732740537892822</v>
+      </c>
+      <c r="T9">
+        <v>0.004434172926639416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H10">
+        <v>16.977119</v>
+      </c>
+      <c r="I10">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J10">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.4912783333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.473835</v>
+      </c>
+      <c r="O10">
+        <v>0.00284067452263553</v>
+      </c>
+      <c r="P10">
+        <v>0.003359596197524347</v>
+      </c>
+      <c r="Q10">
+        <v>2.780163575707223</v>
+      </c>
+      <c r="R10">
+        <v>25.021472181365</v>
+      </c>
+      <c r="S10">
+        <v>0.00277132105473246</v>
+      </c>
+      <c r="T10">
+        <v>0.003292089730634609</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>5.659039666666668</v>
+      </c>
+      <c r="H11">
+        <v>16.977119</v>
+      </c>
+      <c r="I11">
+        <v>0.9755855634461335</v>
+      </c>
+      <c r="J11">
+        <v>0.9799063747781704</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>80.138668</v>
+      </c>
+      <c r="N11">
+        <v>160.277336</v>
+      </c>
+      <c r="O11">
+        <v>0.4633786125289749</v>
+      </c>
+      <c r="P11">
+        <v>0.365351025436994</v>
+      </c>
+      <c r="Q11">
+        <v>453.5079010458307</v>
+      </c>
+      <c r="R11">
+        <v>2721.047406274984</v>
+      </c>
+      <c r="S11">
+        <v>0.4520654847929675</v>
+      </c>
+      <c r="T11">
+        <v>0.358009798857452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.0767325</v>
+      </c>
+      <c r="H12">
+        <v>0.153465</v>
+      </c>
+      <c r="I12">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J12">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>88.281043</v>
+      </c>
+      <c r="N12">
+        <v>264.843129</v>
+      </c>
+      <c r="O12">
+        <v>0.5104595351890647</v>
+      </c>
+      <c r="P12">
+        <v>0.6037079925017727</v>
+      </c>
+      <c r="Q12">
+        <v>6.774025131997499</v>
+      </c>
+      <c r="R12">
+        <v>40.64415079198499</v>
+      </c>
+      <c r="S12">
+        <v>0.006752479831628611</v>
+      </c>
+      <c r="T12">
+        <v>0.005347574693559013</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.0767325</v>
+      </c>
+      <c r="H13">
+        <v>0.153465</v>
+      </c>
+      <c r="I13">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J13">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.371552333333333</v>
+      </c>
+      <c r="N13">
+        <v>10.114657</v>
+      </c>
+      <c r="O13">
+        <v>0.01949502382905625</v>
+      </c>
+      <c r="P13">
+        <v>0.02305628730248842</v>
+      </c>
+      <c r="Q13">
+        <v>0.2587076394175</v>
+      </c>
+      <c r="R13">
+        <v>1.552245836505</v>
+      </c>
+      <c r="S13">
+        <v>0.0002578848001616124</v>
+      </c>
+      <c r="T13">
+        <v>0.0002042298926593241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.0767325</v>
+      </c>
+      <c r="H14">
+        <v>0.153465</v>
+      </c>
+      <c r="I14">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J14">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.6617113333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.985134</v>
+      </c>
+      <c r="O14">
+        <v>0.003826153930268694</v>
+      </c>
+      <c r="P14">
+        <v>0.00452509856122042</v>
+      </c>
+      <c r="Q14">
+        <v>0.050774764885</v>
+      </c>
+      <c r="R14">
+        <v>0.30464858931</v>
+      </c>
+      <c r="S14">
+        <v>5.061327189681493E-05</v>
+      </c>
+      <c r="T14">
+        <v>4.008279309267479E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="H6">
-        <v>4.93929013296319</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>78.0003408863064</v>
-      </c>
-      <c r="N6">
-        <v>78.0003408863064</v>
-      </c>
-      <c r="O6">
-        <v>0.5291359805766866</v>
-      </c>
-      <c r="P6">
-        <v>0.5291359805766866</v>
-      </c>
-      <c r="Q6">
-        <v>385.2663141074985</v>
-      </c>
-      <c r="R6">
-        <v>385.2663141074985</v>
-      </c>
-      <c r="S6">
-        <v>0.5291359805766866</v>
-      </c>
-      <c r="T6">
-        <v>0.5291359805766866</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.0767325</v>
+      </c>
+      <c r="H15">
+        <v>0.153465</v>
+      </c>
+      <c r="I15">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J15">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4912783333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.473835</v>
+      </c>
+      <c r="O15">
+        <v>0.00284067452263553</v>
+      </c>
+      <c r="P15">
+        <v>0.003359596197524347</v>
+      </c>
+      <c r="Q15">
+        <v>0.0376970147125</v>
+      </c>
+      <c r="R15">
+        <v>0.226182088275</v>
+      </c>
+      <c r="S15">
+        <v>3.757711649996536E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.975890965433183E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.0767325</v>
+      </c>
+      <c r="H16">
+        <v>0.153465</v>
+      </c>
+      <c r="I16">
+        <v>0.01322823723750722</v>
+      </c>
+      <c r="J16">
+        <v>0.00885788288374087</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>80.138668</v>
+      </c>
+      <c r="N16">
+        <v>160.277336</v>
+      </c>
+      <c r="O16">
+        <v>0.4633786125289749</v>
+      </c>
+      <c r="P16">
+        <v>0.365351025436994</v>
+      </c>
+      <c r="Q16">
+        <v>6.149240342309999</v>
+      </c>
+      <c r="R16">
+        <v>24.59696136924</v>
+      </c>
+      <c r="S16">
+        <v>0.006129682217320213</v>
+      </c>
+      <c r="T16">
+        <v>0.003236236594775525</v>
       </c>
     </row>
   </sheetData>
